--- a/descriptive_statistics/water-consumption.xlsx
+++ b/descriptive_statistics/water-consumption.xlsx
@@ -8,15 +8,114 @@
   </bookViews>
   <sheets>
     <sheet name="water consumption" sheetId="1" r:id="rId1"/>
+    <sheet name="Solution" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="water">'water consumption'!$A$2:$A$351</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Volume water</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>Quartiles</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>lower fence</t>
+  </si>
+  <si>
+    <t>upper fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25% of the househods consumed a quantity of water lower than or equal to this quantity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% of the househods consumed a quantity of water lower than or equal to this quantity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75% of the househods consumed a quantity of water lower than or equal to this quantity. </t>
+  </si>
+  <si>
+    <t>Measures the spread of the 50% central data.</t>
+  </si>
+  <si>
+    <t>Lower outliers</t>
+  </si>
+  <si>
+    <t>Upper outliers</t>
+  </si>
+  <si>
+    <t>Total outliers</t>
+  </si>
+  <si>
+    <t>Values greater than this value are outliers.</t>
+  </si>
+  <si>
+    <t>Values lower than this value are outliers.</t>
+  </si>
+  <si>
+    <t>Coef.Skewness</t>
+  </si>
+  <si>
+    <t>As this value is positive the distribution is right-skewed. That means that there are a lot of households with low water consumption and few households with huge water consumption.</t>
   </si>
 </sst>
 </file>
@@ -26,10 +125,34 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,9 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -70,7 +196,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -358,11 +484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="256" width="9.140625" customWidth="1"/>
   </cols>
@@ -2127,4 +2251,172 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>QUARTILE(water,A3)</f>
+        <v>86.014125000000007</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>QUARTILE(water,A4)</f>
+        <v>101.24875</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>QUARTILE(water,A5)</f>
+        <v>130.109375</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f>B5-B3</f>
+        <v>44.095249999999993</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <f>B3-1.5*B6</f>
+        <v>19.871250000000018</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>B5+1.5*B6</f>
+        <v>196.25225</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(water,"&lt;"&amp;B7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIF(water,"&gt;"&amp;B8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B9:B10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>SKEW(water)</f>
+        <v>0.67920450234431973</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>